--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -49,13 +46,19 @@
   </si>
   <si>
     <t>Оплачена компенсация арендной платы за зем.уч.83</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,32 +125,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -188,15 +165,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,10 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -501,17 +478,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -520,12 +497,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,124 +512,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>678</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>10188.08</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="12">
         <v>43309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
         <v>9157.9599999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="12">
         <v>43323</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
         <v>1030.1199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="12">
         <v>43323</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="13">
         <v>43586</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11">
         <v>10043.44</v>
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="13">
         <v>43466</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>867.84</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4">
+      <c r="A10" s="13">
         <v>43763</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11">
         <v>10043.44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:4">
+      <c r="A11" s="13">
         <v>43763</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8">
         <v>867.84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -658,12 +634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,12 +648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №83</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -237,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -478,17 +484,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -497,8 +503,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -512,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -524,7 +530,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43221</v>
       </c>
@@ -536,7 +542,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43309</v>
       </c>
@@ -548,7 +554,7 @@
         <v>9157.9599999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43323</v>
       </c>
@@ -560,7 +566,7 @@
         <v>1030.1199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43323</v>
       </c>
@@ -572,7 +578,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43586</v>
       </c>
@@ -584,7 +590,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43466</v>
       </c>
@@ -596,7 +602,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43763</v>
       </c>
@@ -608,7 +614,7 @@
         <v>10043.44</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43763</v>
       </c>
@@ -620,10 +626,16 @@
         <v>867.84</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>11733.64</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
   </sheetData>
@@ -634,12 +646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,12 +660,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,6 +637,36 @@
         <v>11733.64</v>
       </c>
       <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44064</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>433.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,13 +55,22 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислены пени за 186 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислены пени за 208 дн просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +86,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +110,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -152,28 +186,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,6 +198,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,10 +545,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D16"/>
+      <selection activeCell="C20" sqref="C20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -519,154 +576,221 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>678</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43221</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>10188.08</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>43309</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>9157.9599999999991</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43323</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>1030.1199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>43323</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17">
         <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="18">
         <v>43586</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="20">
         <v>10043.44</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="18">
         <v>43466</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="22">
         <v>867.84</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="18">
         <v>43763</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11">
+      <c r="C10" s="22"/>
+      <c r="D10" s="20">
         <v>10043.44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="18">
         <v>43763</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22">
         <v>867.84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>43952</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
-        <v>11733.64</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="C12" s="6">
+        <v>11300</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>433.92</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>44064</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>433.92</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="9">
+        <v>44291</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6">
+        <v>5153</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="25">
+        <v>44291</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>958.46</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>44313</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="6">
+        <v>6146.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>44313</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1278.52</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <f>SUM(C2:C19)</f>
+        <v>35748.259999999995</v>
+      </c>
+      <c r="D20" s="5">
+        <f>SUM(D2:D19)</f>
+        <v>33511.279999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="26">
+        <f>SUM(C20,-D20)</f>
+        <v>2236.9800000000032</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Начислены пени за 208 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч.82</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -238,6 +244,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,26 +777,44 @@
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="30">
+        <v>44317</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="29">
+        <v>12050.32</v>
+      </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44197</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="5">
-        <f>SUM(C2:C19)</f>
-        <v>35748.259999999995</v>
-      </c>
-      <c r="D20" s="5">
-        <f>SUM(D2:D19)</f>
+        <v>445.85</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <f>SUM(C2:C20)</f>
+        <v>48244.429999999993</v>
+      </c>
+      <c r="D21" s="5">
+        <f>SUM(D2:D20)</f>
         <v>33511.279999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="26">
-        <f>SUM(C20,-D20)</f>
-        <v>2236.9800000000032</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="26">
+        <f>SUM(C21,-D21)</f>
+        <v>14733.150000000001</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch83.xlsx
+++ b/sputnik/personal/uch/uch83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Начислена компенсация арендной платы за зем.уч.82</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачена компенсация арендной платы за зем.уч.82</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +185,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +264,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,10 +572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,20 +821,44 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
-        <f>SUM(C2:C20)</f>
+      <c r="A21" s="9">
+        <v>44494</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="29">
+        <v>12050.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>44494</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>445.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="31">
+        <f>SUM(C2:C22)</f>
         <v>48244.429999999993</v>
       </c>
-      <c r="D21" s="5">
-        <f>SUM(D2:D20)</f>
-        <v>33511.279999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="26">
-        <f>SUM(C21,-D21)</f>
-        <v>14733.150000000001</v>
+      <c r="D23" s="31">
+        <f>SUM(D2:D22)</f>
+        <v>46007.44999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="26">
+        <f>SUM(C23,-D23)</f>
+        <v>2236.9800000000032</v>
       </c>
     </row>
   </sheetData>
